--- a/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBBDBC5B-0EFC-48B8-BC88-A6CF620771A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F19D46B-4C78-4F9B-8549-5AB2F98E42CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1A38047-011D-4C23-A487-694B1CEBC73F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE8BF3C0-719C-4567-B0E7-E401B0682D42}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -179,25 +179,25 @@
     <t>96,09%</t>
   </si>
   <si>
-    <t>78,51%</t>
+    <t>78,64%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>85,9%</t>
+    <t>84,83%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>21,49%</t>
+    <t>21,36%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>14,1%</t>
+    <t>15,17%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -206,13 +206,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,02%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,96%</t>
+    <t>95,79%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -221,13 +221,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,98%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>4,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94AB03-68CD-4E1F-8BA9-FCE652F8BBBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797917FB-4292-4CF4-8AA1-4103457FECB3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F19D46B-4C78-4F9B-8549-5AB2F98E42CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2250C02-FF0F-4BB4-83AE-47BEA878344E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE8BF3C0-719C-4567-B0E7-E401B0682D42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7D2B1A4-7E23-4D49-88BA-69587CB66966}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -179,25 +179,25 @@
     <t>96,09%</t>
   </si>
   <si>
-    <t>78,64%</t>
+    <t>84,06%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>84,83%</t>
+    <t>86,51%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>21,36%</t>
+    <t>15,94%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>15,17%</t>
+    <t>13,49%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -206,13 +206,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,79%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -221,13 +221,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>5,45%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797917FB-4292-4CF4-8AA1-4103457FECB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A6E909-9501-4462-9EA6-9A000EECC7D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2250C02-FF0F-4BB4-83AE-47BEA878344E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0A2F86-6B34-47D3-8B1F-382D626C87BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7D2B1A4-7E23-4D49-88BA-69587CB66966}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BBDEE59-8FCC-466F-BAD7-EA8738C58754}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -179,25 +179,25 @@
     <t>96,09%</t>
   </si>
   <si>
-    <t>84,06%</t>
+    <t>78,51%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>86,51%</t>
+    <t>85,9%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>21,49%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>13,49%</t>
+    <t>14,1%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -206,13 +206,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>94,02%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -221,13 +221,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A6E909-9501-4462-9EA6-9A000EECC7D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5456F30-830A-4127-B538-19348FD1B91A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0A2F86-6B34-47D3-8B1F-382D626C87BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCAEE94-AAB3-407C-94B7-F87D9537CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BBDEE59-8FCC-466F-BAD7-EA8738C58754}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A0FD1503-9D78-43EB-A183-3233E15EA651}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="66">
   <si>
     <t>Porcentajes de antidepresivos y estimulantes recetados en 2012 (Tasa respuesta: 1,68%)</t>
   </si>
@@ -71,36 +71,51 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>73,58%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>56,93%</t>
   </si>
   <si>
@@ -116,34 +131,28 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>13,49%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -162,12 +171,6 @@
   </si>
   <si>
     <t>Jaen</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -642,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5456F30-830A-4127-B538-19348FD1B91A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857B757B-F1C9-483C-9BB8-30DC3397EDDB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -760,88 +763,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4759</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12899</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17659</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -850,48 +865,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4759</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12899</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N6" s="7">
+        <v>17659</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -903,13 +924,13 @@
         <v>4304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -918,13 +939,13 @@
         <v>6402</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -933,19 +954,19 @@
         <v>10706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -954,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -969,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -984,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1005,13 +1026,13 @@
         <v>4304</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1020,13 +1041,13 @@
         <v>6402</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1035,18 +1056,18 @@
         <v>10706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1058,13 +1079,13 @@
         <v>1963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1073,13 +1094,13 @@
         <v>3128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1088,19 +1109,19 @@
         <v>5091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1109,43 +1130,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1160,13 +1181,13 @@
         <v>1963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1175,13 +1196,13 @@
         <v>3128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1190,72 +1211,72 @@
         <v>5091</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4272</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
-        <v>9032</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
       <c r="I13" s="7">
-        <v>21889</v>
+        <v>8990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>30921</v>
+        <v>13262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1264,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1279,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1294,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,54 +1330,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4272</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="7">
-        <v>9032</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
       <c r="I15" s="7">
-        <v>21889</v>
+        <v>8990</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>30921</v>
+        <v>13262</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1368,13 +1389,13 @@
         <v>2994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -1383,13 +1404,13 @@
         <v>19845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -1398,19 +1419,19 @@
         <v>22839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1419,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1434,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1449,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1470,13 +1491,13 @@
         <v>2994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -1485,13 +1506,13 @@
         <v>19845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -1500,18 +1521,18 @@
         <v>22839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1523,13 +1544,13 @@
         <v>2978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1538,13 +1559,13 @@
         <v>2848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1553,19 +1574,19 @@
         <v>5827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1574,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1589,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1604,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,13 +1646,13 @@
         <v>2978</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -1640,13 +1661,13 @@
         <v>2848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -1655,18 +1676,18 @@
         <v>5827</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1678,13 +1699,13 @@
         <v>3902</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -1693,13 +1714,13 @@
         <v>4025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -1708,19 +1729,19 @@
         <v>7926</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1729,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1744,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -1759,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1801,13 @@
         <v>3902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -1795,13 +1816,13 @@
         <v>4025</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -1810,18 +1831,18 @@
         <v>7926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1833,13 +1854,13 @@
         <v>11345</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -1848,13 +1869,13 @@
         <v>23807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -1863,19 +1884,19 @@
         <v>35152</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1884,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -1899,13 +1920,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -1914,13 +1935,13 @@
         <v>969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1956,13 @@
         <v>11345</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <v>24</v>
@@ -1950,13 +1971,13 @@
         <v>24776</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>33</v>
@@ -1965,13 +1986,13 @@
         <v>36121</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +2009,13 @@
         <v>36518</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -2003,13 +2024,13 @@
         <v>81944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M28" s="7">
         <v>108</v>
@@ -2018,19 +2039,19 @@
         <v>118461</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2039,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2054,13 +2075,13 @@
         <v>969</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2069,13 +2090,13 @@
         <v>969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2111,13 @@
         <v>36518</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30" s="7">
         <v>78</v>
@@ -2105,13 +2126,13 @@
         <v>82913</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -2120,18 +2141,18 @@
         <v>119430</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
